--- a/Software/SAParaguay.xlsx
+++ b/Software/SAParaguay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\Proyectos\Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FFE92E-F27A-4E39-A9ED-F01C1352DAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8607EEB3-10D4-40E6-956A-447AB14F5D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="132" yWindow="24" windowWidth="22908" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,13 +42,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,8 +77,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,12 +364,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
